--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/54_Kütahya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/54_Kütahya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB7A1106-0796-4F13-90A3-01F67109C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC72C51-EC43-4BA4-8EE2-4CF43F44F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{1F783AA7-EEF8-406E-B31A-5B9F5C4B91FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{8EA87D78-783D-43D6-8F27-A45E2146B649}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B5F95B82-BB35-4B58-9462-82A2A949750E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A40A8A00-EFE9-4D60-A914-BE31A527B719}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1A42AD4C-95A1-4469-821F-811A6FED1AD8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5895CDFB-731E-4B73-8631-2C021697092F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AF7E2375-FD69-4CDB-A035-3119F63C6735}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1ABCAFE6-3D55-4C0E-B68D-B2E881AA2050}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{42499BA4-469D-4F40-B298-438A69F1EBA6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0914AC1D-6D3B-46DA-AFE3-F807C7E3495B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4938F4A1-650A-4686-B451-442F68997B61}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{653AFF3E-04BB-497D-B663-D4DBC1BFAD39}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A0F2E4B0-C061-446A-8D76-D41F05F3D0FC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A013BE9B-5C43-4117-983D-7542720C281B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{951D4597-7CE7-45E5-8033-DF3811715FC4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1156FC67-3694-4E46-BAB3-3705892EB33E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F479173-694F-49D5-9538-50BF39396038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01904C09-8CF9-433B-86DA-4D2435B7E894}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2576,18 +2576,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5EE71BD-78DC-48FA-86F0-E78F9D6E713D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6BC3C5A-0614-41ED-B6F8-4F958B11C080}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{981BEF34-3AB4-4B58-851A-ED7EF303792F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F9D9A12-4246-4B30-B1DD-86F9B9A4C4EA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F3300FC4-DFD1-4A75-B2D7-24F5ED8D5AA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9FAA4A9-922C-4D93-A9AA-D66DA19E35F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{209EC429-0BA0-4FF2-A4BA-874DBC4B8092}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DEA748C-BF2C-44C8-B17D-A968C0C36B23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9D8C652-6461-4943-96EF-A26DCD5767E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8410EA8-90F4-4020-B1BE-EE4D0A9D9565}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBAF6E14-8C97-40B9-996A-D12EADD0F01C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{063662F8-D7CA-41C4-BACD-41EB893EC6BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B42F778D-5395-4490-9911-C21463184BF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{713B044B-425C-4632-B45B-0AD069873CCF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{700C943B-6DE5-4634-86D2-EF5861E17B8E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2371C9A6-716D-42CE-8868-36EE7CB856AD}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2DB9C610-F704-41DD-B797-555B04AE2113}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B49C274D-02FB-4A7B-80C0-9DD59F90A503}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A21099B9-D6D1-4D24-8141-E86E1F6AF9A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5E1374A-DF01-44A7-8C6E-0F5873908B27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5DD5E82-7BB1-44BC-AB6E-BD706E697D0F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{354A33DD-3DC4-4129-81D7-DB059C6D9A0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDFFE334-FCBB-43F6-883B-FEF43DD29196}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE227527-2341-4F56-BB17-F131F4ECBD0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2600,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9F4A7C-739F-469F-9474-CD12187E4BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94A8951-FB60-4EA7-96C6-7844C948CB19}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3830,18 +3830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1015F3A8-FDBF-4A78-A826-C5B36B323708}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36E4B881-A480-4907-AE40-332ADA4BC725}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{516DDAA5-369E-4302-97DD-9968ADA1239C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51266CFA-13EF-492C-8244-76144B662F06}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DE02BF09-26BD-40AC-B7EA-205338ADAA3A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7FBF8BB-B614-4BAF-BFE7-88629D21AC45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF2F3627-CB37-4584-BD91-1930F61D8D3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B25496E2-FE8F-448D-8521-3B16279B96CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{135F4C94-27AC-43E3-B852-9FED40EF6EB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF589548-EC20-4F0B-BEE4-1C3DAEC0E524}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3A83097-A0E6-45EA-9920-3112A73A48A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B35CC303-4295-49B0-BCB3-4FD3D8F7A517}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D74D0243-AB65-40B0-9C74-71485BE11B83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A538D85-6350-44FE-A7CB-96BF1DB748F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5720B98-DFC7-428C-B245-A841D3EE5809}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED57C3BB-CD28-4CCD-8B58-EC1D781804C4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F5EE614C-39F7-4C1F-A698-A76069A51D9F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{326D9E14-0801-4AF7-9B0A-38B42D94F7D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBBAF282-B51F-4E4F-A14A-BA036A34ED94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{465B950D-92ED-405F-B8D9-8CA91E8DBA4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC2D97BE-36BE-41BA-90EC-9142E9D41B72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49BDFA57-0E9C-4DF4-9361-6A729497A6EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EC834E3-ECA3-4303-904C-787265A316F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AEA775E-472F-42A2-85E3-9AE81C37864A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BF99DC-F15A-4764-B2F9-E8AF03F89DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC7A8A-A917-46C8-BB5D-CCA367C1C2BC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -5086,18 +5086,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{594AE4D2-01C2-4B52-8A41-39BBBEE350FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8C21A96-F089-48EF-A1F7-686326032992}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47A98E9B-825B-4406-98F7-C1FCFD57D7E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5FB46AB1-32F8-4C5C-B6A3-D0EE9CD9C5DC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{61EC412B-0B6D-489D-827D-0EC643CDFD02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F21452E-E6B2-4092-BB0F-F776EFCE8CA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{146A31B4-168C-41A6-BC48-A30622612609}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5CFFD3B-3631-4A7E-9A72-863454C5804F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1EDB07F-C6EC-438F-A002-78C1920DB59E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D5FD4CA-B936-4A8E-809D-D112C92DCB2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA856777-F684-4E00-B984-6C7F18CA4BC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D280F79E-5CB4-42C6-A8F4-5FE7B2868868}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21494D69-981F-4059-9897-3D7AA7A388C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E13D002B-5A1F-447A-9703-773A80ED60AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43EA2628-C9F5-407C-AA60-E7CC7ABE6913}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59C5DBFC-1519-4D88-87B4-7FC0F94CD7B2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{848F8213-02A2-45E6-A487-D6B73993257C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A01281D-0291-4852-B33B-1766B0574DBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E80FB641-5FDF-43D4-A2DD-F59F27D4E890}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B43192E-5453-41D0-B1BB-545E8B058AEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5980A4C-29FB-4517-B6F4-35072446A19F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58565AEF-8078-4268-9957-76D8359180F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{795613BC-D65C-4F84-B9DE-74F0DDF050FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D572DAC7-40CF-4A72-A214-BE03128A5B6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5110,7 +5110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECBCEB0-FA87-4BD0-9603-B19191D7FBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F6A449-4EBE-4B0A-933C-735118B8AC32}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -6330,18 +6330,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EF9E0F1-0817-420F-8F7F-0C7935E83DFA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20DF1EF2-D600-44FD-8EFE-BBE9C88C6312}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CCB1DA1-C48E-413E-939F-BF6C789D8ADA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9101A746-D007-4FB6-8962-C92CD4245298}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BDA09596-41B8-4E2C-A11B-08E95B278D7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C37E14D-3677-4A0E-9853-620DB14D8DE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7694F1E-408D-4043-AD55-D728D849F605}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DF80AFC-3CBC-4AAD-B6F6-A689928457FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCA162E1-572A-47FF-A95C-A80804576596}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8512937-58C7-4BB7-89C6-EB290A6A1110}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F55C967-DE34-4467-B30E-92BC990D2E5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34A8538F-4499-487F-80CD-15505A0C45D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA7A008B-659E-4EEB-A953-CCE3CC3DBC0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D9D15C7-7BD3-4CC6-B948-3D8348086735}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CA3735C-2CC5-4D4E-B4ED-41A17AC8655E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05CCD51C-F7F2-4464-8E25-58EC64A0BFBF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7B25A8DE-680D-429A-8DBA-6402829F6753}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08D7DD01-9829-4FC9-BFF6-80AB12EDE354}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D09D02AA-715A-4735-99A6-BD2CBE2541ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73BDEE38-20FA-410B-B171-9137A0DB5862}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC664D2C-E25D-4ABD-B421-48EED8432341}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4332D2EF-4272-4FC5-A7E7-1FA0BF88B2BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15DC9DA4-A6E0-4255-A367-1FE9B3918D6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2638C03-AC99-4F8C-82CE-A3B20721B39B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6354,7 +6354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD088BD-DE13-48E5-8C35-B856FEC25805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E40583-7475-40FC-979B-2B5EC2DCDD35}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7599,18 +7599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5B5EA6E-BBB3-4B6C-9F41-092DD91F0CD4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08F448B6-A7CB-4E22-90B1-C1D7E19FA8F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B84F377F-E061-4D71-9793-8BCD0BE8F20A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CBDB255-53CE-4C06-B7C3-9C976C5C716F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0A97AACF-752E-4386-81F8-2AF5007263C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BFB0150-929A-4C5D-B99A-087BDE1F3746}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92B2BBC7-F4E3-4E60-8B4F-7BC2909AB44B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F0847AD-AB4E-4199-9EDD-899FBB639060}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{261D7428-9E24-426F-90B8-B820A46B1AD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26625004-93C7-4ECB-B471-098F84274FB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E21BCD2-39E9-40D6-ADFE-46646FA06F06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD246722-3644-40E0-AD9D-E97453FB9C49}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D40F1B6E-3C73-4A46-A0DA-53DEED7299CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D46FD5B-6B14-41BC-9FAE-695813CE4778}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{259BBAF4-E1E2-4925-AB07-FEDF686DE76F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF5786B0-53D5-4EAB-99D2-5F7A9391F907}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BF21D463-7F62-44E8-BDBC-DC4C228217F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F37F542-A1CB-40E9-8170-D3D41C1F1884}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB721947-A69A-41C1-86F8-6F6D0D1CAE84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C89728A-8276-4CE4-BA63-8ACF80A9B775}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DFE608F-0706-421B-B7BF-0DFE0AB77098}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2AAAF1E-3F6A-4304-B2E7-899AE366B859}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A00914D2-E312-4691-83CB-6755D13B0CC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA02EEA6-86CF-4506-997B-582182FA28A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7623,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9604AA4-CE01-4B5B-AA04-2A9CAAAF56B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEF9055-7A26-4DC1-8609-91989B5048DA}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8870,18 +8870,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43B934E0-0963-4D6B-9474-D3B736A5B398}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{735B5A51-CF4F-4961-BF4E-D396E96FE74C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47B6217B-3B78-41E3-95C8-6601037F2409}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3B3986D-95B1-4DF4-8094-7095F5DCD2D6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E724AB64-110C-4805-AAD6-8D43999C629A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C434FAEC-5FB0-47B2-9161-6B113FC3AECF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E65A4022-E3D8-4ABC-A90C-ECD3F16EAAE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{680CA245-1AA5-4D98-B23B-32D4E5240E04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F552A008-8411-4319-9177-58AA86894DD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AA11623-72B4-4FE6-B957-8AFF81B6D166}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C848421-6E8E-4AE0-A6A0-6554336A17B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F8D3D15-B262-49E1-B876-303617870BF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2D31DF6-5A84-4515-8A34-8770B55936B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7ED227AB-D51F-4FE3-89F1-9A30BA9E844D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13CF9E52-791A-454E-B950-9805BFE251B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEA10C9E-CA0A-4A51-B8F3-3E2AB68F80FF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{382D84AB-98DB-470B-ABEE-51F25BC9D2CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72C59B04-0651-42ED-8D16-F70DD7295444}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{086C7D67-AC9B-4316-88A5-3EF42F85D8DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF8E8DA2-55DD-4587-BD02-AF2017859EDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB3B613E-314D-4EAC-A438-9E11F737DB4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A97E3BE0-4963-413C-9B32-0B77191A05FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B634E99-F029-4CBC-8431-6AD7B442AD11}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06C912EC-1B0E-426D-A364-6159ACB485AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8894,7 +8894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F898544E-F6EA-439E-9CA4-5B74A8E276C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81211231-D9F9-42CB-99A0-AEBA13085D9E}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10139,18 +10139,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C7183E1-EC5B-47A7-A67D-C618D9FCB236}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F189D800-7881-4677-B034-AEC0BE13EF37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF24B3E9-7479-4CAF-AFA6-8F913E02CFB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3974654B-1FCB-4F76-ACEA-53E38275F447}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{796B8D87-6C5F-4B54-A1CC-55434DD9E3FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CB56D60-A56E-4773-ABA2-D71BE75DA239}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B950CE4F-B9D3-4A29-931F-FDCB0D860084}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECA1C106-8E00-4A06-B05D-E8C17C196376}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C165E247-15D7-4827-9E82-4A2D7907A027}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83C260A2-C618-45E4-BD7B-3E2193887E21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4561B9A2-5B05-454C-9338-BAEFE9E7123D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B85E7EAC-3819-4293-8BA4-2C10EB4404D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{374D2321-D6AE-476B-A641-E0DE8C6A296A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30A83711-C574-4CD3-8CC2-2434B7EE2D11}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5178CC5-CAA2-412E-A903-CC613FF4ECF8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62756F40-B264-4164-86F6-E7EB8A2D0A7A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{19EFA87A-8727-4FD7-A0A4-B383F18AC7DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32445A4B-5078-4DB7-A8F8-F6AC82EC8B6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8189EAA6-236D-4432-8193-C6939B823C86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9433A7CE-8EF3-4662-8CFD-FBC27A2ABD92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70F9CFE1-037A-444C-8140-93A92A019C87}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E9A60EA-8746-4032-A8B6-9269CDFA0571}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4EAA743-A6CC-4F26-A390-848B6FEC9A64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D973953-1493-4AF1-A28E-A1AD1E3E512E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10163,7 +10163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439AE68B-2903-406A-8C62-355EB00D8AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F01C34-8B30-4EA6-99D7-ABF0EC3F1846}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -11411,18 +11411,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6C62402-9B00-4CE8-9CBD-7E04BCB0D9E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{781FCA70-3503-41DD-8C13-9A4C41ECE49D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{80CB68BB-88B0-4F74-838E-0630BE803256}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD817A2D-FC2A-4D88-96F1-870705564232}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7EC58103-41D7-45F7-BC4C-0209C11C8FCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F175C033-ECCB-4266-AF13-E2FB0DEE0F94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A04113E-B01B-4638-AA83-3565B8A110C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13F7EFBB-64B2-455A-AAF6-1697EFD17A36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7D989D0-48E4-42A5-8012-1E3DF4C440A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D74D7C9-8569-4A66-9860-42F219EDD896}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F6DC395-117D-4998-881D-D719BFA80FCE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ABBDF4F-199E-427D-91FF-76BAF8B0A3A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AA532FC-F120-4569-B4A8-3515495E7CCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{152D9BEA-5749-4EB4-B7F0-FCD4EEFB042A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A375B5C-056A-496D-A13F-2EBBF644B299}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{331C46F0-B123-4DB5-80BB-D84E9AB5B15C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E582630D-33DF-4997-B087-872744B1A3D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39D4685D-46BC-4816-8C17-57D312C318F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{856568E4-82E8-4B7D-909E-7A2DF2B54AC0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33FF7309-EFAA-48D3-9B0F-06BE82F3644B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91EAEB14-DC5A-4CB6-9E9B-BBAFF358AAB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C492E2CC-6A71-4D7A-8F29-FAF249A98DAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1DA5EFC-EF40-4E09-80E0-28304C86E51E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3D9ED63-887D-4537-88CF-0814E4B26776}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11435,7 +11435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70B3D98-2E22-42E0-9CED-7AA6F1600E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF14902-02EB-4015-BCB2-48917E7B30BB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -12681,18 +12681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA50652C-E496-4512-ACB5-3FED1375B94B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{701CA3E9-9B34-467E-AE41-0D40184B9BEC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F02D29F3-ACBC-4A71-B9C6-5AAD2E9F5D75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE402FF8-F266-48A3-B887-F4335010BB95}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{99B2B5BB-1F81-44A5-B96E-FB28E4FC0F3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAE060E3-493A-494E-A6AB-8A2BCF50D13A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF52FB2E-8647-4DD3-9716-CCAE39A60FB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{750BA2E2-E1E5-4D8E-8D55-9A03B73E8467}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3C72F0B-8E32-49A2-A44F-3A7BB6656809}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DB8EAE3-3346-4E9E-8B67-2FB76072ED32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20E18CC5-6B86-4919-A372-795F9E30C8D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D4419C0-4B73-4333-BFC4-B7052745B1D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26E86CF2-0EE8-4766-94A1-95D9B0C69E0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC9C197A-2DBB-4FA3-B76E-46914DBED390}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F1D24A0-2E15-42D7-8953-E5BCE9A31B6E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE418B15-DED7-4377-B495-C620D6860D96}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6DD1141E-441A-4166-A486-116B634C0B1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84F88484-A0A1-41A4-8DD5-907C3797F249}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4008B164-FA22-4E30-816C-B4C3C640792A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E233940-A56D-45C2-B324-1933416CF186}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88E89A0C-DADB-4C0E-915E-1F317594EE29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BD275A1-A2CF-460B-9F01-A1F48D19AC06}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41040B0D-2F5C-499D-84DE-9D88C24B84FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C874C69C-5FB0-48D0-85F9-EC3EF202A5BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12705,7 +12705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322E0942-8AD1-4525-A50C-68C69E2DDAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38A592F-F9A2-4FAF-9857-59DEBFDF3923}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -13947,18 +13947,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1FA67C2-FED6-463A-8108-96DD405E8B3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63A09F44-7157-46E7-AF0B-2337CF0CB95F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{869823DD-2822-4FB4-B5AF-8B38FEA44914}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33336969-F9ED-4B63-A702-5EDA9FF8709B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F3E3F6C7-1BB7-41BE-8266-697C94470ED4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB934971-AE8C-408A-8540-7087CDF69897}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F6065A8-5962-4A35-A198-EA95463D2A10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE577FDB-9744-4EC6-BE04-92B07EC71822}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A8E7656-A2FA-4FB7-991A-B7EBBB21DCE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FF95B9D-86CD-4422-A1F0-878F62C0C1A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{417B462E-D513-4B9A-A417-45A91B43648F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C66F060-402B-403A-8BCD-DF7B6BC52BA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AA954F9-9A3E-4159-9114-38B502957DC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5090090F-F1F9-4134-A689-0549832AD02C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{327C8F40-C3C4-441B-911D-7005BB7A0079}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{410A1B83-278B-4B2F-9B9F-4771368D1200}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7019E58E-B0C3-4747-9BA1-301FA64DF82A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33D4B547-B069-497F-9CF6-5C0BB78C82FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86FEA8D4-FAFC-4A70-82DA-7500F69BDAFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BBE4AA1-AC19-4DA7-BDF1-0E6CC8CAB473}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79E43E4B-0BE9-431B-9365-BBA6AA60B350}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C328637-F831-4194-A0BB-1AD9DE6CF1FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30C356DD-F007-4B09-A0B5-546D12101573}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92D0C7F4-8119-4E3E-867C-58D2555C1C74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13971,7 +13971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833BB7E-EEF2-4E43-BEB9-93E43FABEE6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13FB0C9-C76B-4C03-9818-FD08E22B5E3D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -15215,18 +15215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E55DAE7F-A86F-43A6-BE4C-B1CEC08D2CB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51000962-DA1E-4C93-AFF1-C857CF01EF20}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{687D57AF-B3A2-474C-BBF9-BA7384D24D6F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14FBD5BC-3F51-43E6-BEE6-6EE4515F1ECB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6A3C4FF2-BD44-4952-A72B-779A4849113C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2BF285C-96D9-4724-9CBD-FEB4740B023A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80ABB280-BCA0-4581-B341-430E0F5C43E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{172AF723-5712-4ABE-947D-988B94755CCD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39E92BB5-1EDC-4B60-A304-4050CEFC4799}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E589D27D-D319-4ACC-92A1-919FB5CB789B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BB1AB12-9B4C-4D29-A5AF-CAFECF4B7E0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5785B369-181B-499A-8AA4-F2521F231E9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9E63D8A-9EF6-41A9-AB57-BD7EB3583843}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80DA24B5-2C1C-460E-9D38-DEAB1AE7B93B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{668874C6-58F9-4F5F-A208-5C8EAE1A1D01}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20860AD3-2824-4BEA-BD41-BD379CA17A81}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{92DFB07F-9B69-472A-9EA7-61EE59742024}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37192D4F-B752-41BD-8142-79833A57134C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE5FC031-C284-47BC-8D0A-3242500C7E88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E6E228C-2E5C-4D79-8C86-2E6A54CA58AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FB0D74C-65CE-4FD9-BD63-FFA7067B9487}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{566819C9-68E7-40E3-9829-08401CB19FFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62B5812A-2C54-4238-AC21-044DD9F4938F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8719B867-FA08-4EE5-A2E3-177B7E6EBEE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15239,7 +15239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74704524-64DD-4398-80E3-5B6427C38172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C9BAF-D840-41DA-AE81-151E5748C4BC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -16479,18 +16479,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7F2340E-85BC-4725-957E-AE333967DDE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{731CA34A-421E-4577-B537-B594884DEF0A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29AC665E-F706-4F54-9E58-8BE4121C4E32}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C55912A9-550C-4566-AF00-CAD1371011D7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9B45210B-1121-4642-ADF1-6FD374740F8B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC0046C3-C8DD-49A4-B929-AAC74DD607BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{929FDFF9-04FC-4ECD-9EBF-A1092E077635}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CA2BD6E-A578-491A-915B-23271A8ACD64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{676F780F-F16D-48AF-8283-B32705970DE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5341911-14F9-4AAF-B60B-CCECFD554A33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBEFE71C-0B23-44C4-AC03-4FC833C87710}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC06AE65-132C-4ED3-92ED-029AFAD75EC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F480F9D-B422-40BA-B778-26F5912F2F26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B3283C9-616C-4505-8416-AACC9E60E298}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C34B5C09-78C0-4719-A07A-F769C3D8CA93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9130FCD-7ED4-452E-834D-AE3DDA4328A0}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3A99D429-D9DC-449A-9D28-7B392702E6EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09A8F9EF-1A15-49D1-AC71-51205F75DB1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B8B3336-B7B2-4EFE-80DE-1652B72FD7C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2098471D-BDB9-4FDA-930B-D68E14F03A40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{785E0310-5DB5-41F8-9289-968DB0D74A95}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E18B11D8-743D-4E98-A21A-58F8BC897794}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{569039CF-30E0-4B70-BAD1-BE06A99D8C0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3742087E-4BC7-464A-94EA-0CD9E7251E74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
